--- a/results/training/Summary_ValidationError_DataSplits.xlsx
+++ b/results/training/Summary_ValidationError_DataSplits.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ML_SelfHealingUtility\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_SelfHealingUtility\results\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80729D49-8B02-4FA5-950F-57A63530319C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="7240" firstSheet="5" activeTab="7" xr2:uid="{55F1A794-B749-444C-B355-0D1974EC55E2}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18270" windowHeight="7238" firstSheet="6" activeTab="9" xr2:uid="{55F1A794-B749-444C-B355-0D1974EC55E2}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="2" r:id="rId1"/>
@@ -20,9 +21,10 @@
     <sheet name="Results-FeatSel-FinalData" sheetId="5" r:id="rId6"/>
     <sheet name="Results-FeatSel-Linear" sheetId="7" r:id="rId7"/>
     <sheet name="Results-1k3k9k" sheetId="8" r:id="rId8"/>
-    <sheet name="Data-1k3k9k" sheetId="9" r:id="rId9"/>
+    <sheet name="Results-1k3k9k (GBM)" sheetId="10" r:id="rId9"/>
+    <sheet name="Compare" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="86">
   <si>
     <t>70_30</t>
   </si>
@@ -261,6 +263,36 @@
   <si>
     <t>With regards to the hyperparameters tunning, we utilized the caret R package to optimize the parameter space and find the configuration that provides the smallest root mean square error (RMSE).</t>
   </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Utility_Type</t>
+  </si>
+  <si>
+    <t>User_Time</t>
+  </si>
+  <si>
+    <t>Sys_Time</t>
+  </si>
+  <si>
+    <t>Elapsed_Time</t>
+  </si>
+  <si>
+    <t>Number_of_Trees</t>
+  </si>
+  <si>
+    <t>GBM</t>
+  </si>
+  <si>
+    <t>xBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
 </sst>
 </file>
 
@@ -369,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,6 +447,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,7 +463,418 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="126">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -11555,10 +12001,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -11582,9 +12028,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Training by component Saturating</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Prediction error by dataset sizes</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -11619,7 +12066,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1373954378556049"/>
+          <c:y val="0.16916755612186996"/>
+          <c:w val="0.83354247495813349"/>
+          <c:h val="0.66080548009751205"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -11629,11 +12086,787 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Results-1k3k9k'!$M$23</c:f>
+              <c:f>'Results-1k3k9k (GBM)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results-1k3k9k (GBM)'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturating</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Discontinous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k (GBM)'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.213045832312832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92682219071316696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2969844589661399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3776377506670299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D67C-42F7-B266-2C401D5F6D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k (GBM)'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results-1k3k9k (GBM)'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturating</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Discontinous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k (GBM)'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98880768068118696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17684391267762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9332066817158102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.28522270841649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D67C-42F7-B266-2C401D5F6D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k (GBM)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results-1k3k9k (GBM)'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturating</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Discontinous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k (GBM)'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.412881178855042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4049862063002201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.571836433222501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1620950970742898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D67C-42F7-B266-2C401D5F6D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412414392"/>
+        <c:axId val="412411112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412414392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Approach</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412411112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412411112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAPD </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412414392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79215635694151187"/>
+          <c:y val="9.2930231756352011E-2"/>
+          <c:w val="0.1818695846638721"/>
+          <c:h val="7.6967443784755188E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1119120049752817"/>
+          <c:y val="0.14589254766031196"/>
+          <c:w val="0.88808799502471825"/>
+          <c:h val="0.79102853477804014"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k (GBM)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11648,79 +12881,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results-1k3k9k (GBM)'!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results-1k3k9k'!$M$24:$M$26</c:f>
+              <c:f>'Results-1k3k9k (GBM)'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.213045832312832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98880768068118696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.412881178855042</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Results-1k3k9k'!$L$24:$L$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C33-4F62-82F3-F06A6C598991}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Results-1k3k9k'!$N$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Results-1k3k9k'!$N$24:$N$26</c:f>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Results-1k3k9k'!$L$24:$L$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C33-4F62-82F3-F06A6C598991}"/>
+              <c16:uniqueId val="{00000000-10E5-477D-94CA-0E750C4616A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11734,11 +12932,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="456637888"/>
-        <c:axId val="456634608"/>
+        <c:axId val="412402912"/>
+        <c:axId val="412397992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="456637888"/>
+        <c:axId val="412402912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11781,7 +12979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456634608"/>
+        <c:crossAx val="412397992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11789,7 +12987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456634608"/>
+        <c:axId val="412397992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11809,7 +13007,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11840,7 +13038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456637888"/>
+        <c:crossAx val="412402912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11852,37 +13050,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -12386,6 +13553,1708 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% Error trained</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Component Type</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Item Management Service</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="53000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k'!$I$3:$I$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results-1k3k9k'!$H$3:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B857-4BBE-AF5A-6ADD727B8788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query Service</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k'!$J$3:$J$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results-1k3k9k'!$H$3:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B857-4BBE-AF5A-6ADD727B8788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Authentication Service</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k'!$K$3:$K$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results-1k3k9k'!$H$3:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B857-4BBE-AF5A-6ADD727B8788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k'!$L$3:$L$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results-1k3k9k'!$H$3:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B857-4BBE-AF5A-6ADD727B8788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALL Components</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k'!$M$3:$M$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results-1k3k9k'!$H$3:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B857-4BBE-AF5A-6ADD727B8788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="528976504"/>
+        <c:axId val="528973880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="528976504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528973880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528973880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528976504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by component ALL </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k'!$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k'!$I$24:$I$26</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results-1k3k9k'!$H$24:$H$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88B6-473C-B62B-07DB11DB18F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results-1k3k9k'!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results-1k3k9k'!$J$24:$J$26</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results-1k3k9k'!$H$24:$H$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88B6-473C-B62B-07DB11DB18F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="288000608"/>
+        <c:axId val="309850728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="288000608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309850728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="309850728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288000608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Prediction error by method types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1373954378556049"/>
+          <c:y val="0.16916755612186996"/>
+          <c:w val="0.83354247495813349"/>
+          <c:h val="0.66080548009751205"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compare!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturating</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Discontinous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.412881178855042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4049862063002201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.571836433222501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1620950970742898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-055D-40EC-A919-8F56975F94AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>xBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compare!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturating</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Discontinous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8121533916777101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47339255834478999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91162854984439801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.57409891572279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-055D-40EC-A919-8F56975F94AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compare!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturating</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Discontinous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-055D-40EC-A919-8F56975F94AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412414392"/>
+        <c:axId val="412411112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412414392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Approach</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412411112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412411112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAPD </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412414392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71966444971077648"/>
+          <c:y val="9.2930159515443117E-2"/>
+          <c:w val="0.27507356726040311"/>
+          <c:h val="7.6967443784755188E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16181,6 +19050,33 @@
 </file>
 
 <file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16256,6 +19152,79 @@
   <cs:variation>
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -27029,7 +29998,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30571,6 +35552,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7A40B9-BB3B-48CF-8041-11D777AA04EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112714</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B495C7-75DE-4603-8545-ED4713725B22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31601,25 +36625,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF17458A-A4F9-40A1-AB02-2B85465B2A18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442DCFD5-B672-4277-807D-78E99AE2919F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31633,7 +36662,121 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F78EC7-DD16-4A17-963B-C7D7D7D0B65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EF585B-3AB5-4D1B-998C-D858BE6FB176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FBCBF0-62C6-4D6D-B77B-00A5E263E339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31643,28 +36786,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6031CA3D-7C0A-499E-AE69-83A7B974C46B}" name="Table1" displayName="Table1" ref="A2:D6" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6031CA3D-7C0A-499E-AE69-83A7B974C46B}" name="Table1" displayName="Table1" ref="A2:D6" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BAD4D31F-3EC6-4B94-8EC1-0DE4A18E3ECC}" name="Utility Model" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{51DB4F50-9885-4BE5-95F2-5C57BA874371}" name="100" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{667B6FA7-6065-4725-BFFA-608623085F8F}" name="1000" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{B9104A7F-C263-4FBB-8D2A-588E16D3BEE2}" name="10K" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{BAD4D31F-3EC6-4B94-8EC1-0DE4A18E3ECC}" name="Utility Model" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{51DB4F50-9885-4BE5-95F2-5C57BA874371}" name="100" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{667B6FA7-6065-4725-BFFA-608623085F8F}" name="1000" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{B9104A7F-C263-4FBB-8D2A-588E16D3BEE2}" name="10K" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D4F8807D-35EF-41AE-86D6-9893C9B8A594}" name="Table27" displayName="Table27" ref="H2:M6" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D4F8807D-35EF-41AE-86D6-9893C9B8A594}" name="Table27" displayName="Table27" ref="H2:M6" totalsRowShown="0" headerRowDxfId="79">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{17DB93E5-786C-4984-8CFC-14891AFB9F79}" name="Utility Model" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{17DB93E5-786C-4984-8CFC-14891AFB9F79}" name="Utility Model" dataDxfId="78"/>
     <tableColumn id="2" xr3:uid="{4EB53ADF-885F-402B-9CD1-5EEBADCCAB6D}" name="Item Management Service"/>
     <tableColumn id="3" xr3:uid="{2F586EED-8B29-4180-8264-9C7D24E1B3E6}" name="Query Service"/>
     <tableColumn id="4" xr3:uid="{3B47E984-4E77-4CB4-98A2-F6D3B2168B6A}" name="Authentication Service"/>
-    <tableColumn id="5" xr3:uid="{C046F90B-67E0-46B1-89C5-BA2AC04D421F}" name="Average" dataDxfId="51">
+    <tableColumn id="5" xr3:uid="{C046F90B-67E0-46B1-89C5-BA2AC04D421F}" name="Average" dataDxfId="77">
       <calculatedColumnFormula>AVERAGE(I3:K3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FAAD925B-6907-48E8-AF9E-EB6623175C49}" name="ALL Components" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{FAAD925B-6907-48E8-AF9E-EB6623175C49}" name="ALL Components" dataDxfId="76">
       <calculatedColumnFormula>Table16[[#This Row],[10K]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31673,50 +36816,50 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9FF8DD78-45BE-4A60-87F8-E461D6AC7F6D}" name="Table38" displayName="Table38" ref="H23:J26" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9FF8DD78-45BE-4A60-87F8-E461D6AC7F6D}" name="Table38" displayName="Table38" ref="H23:J26" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2E458000-F478-448A-916E-058948F865C1}" name="Components" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{FA91F735-87C5-47EC-95EB-C65A0FD9EB4C}" name="1000" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{E78BFA2B-C731-472B-A273-0BB5115476BA}" name="10k" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{2E458000-F478-448A-916E-058948F865C1}" name="Components" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{FA91F735-87C5-47EC-95EB-C65A0FD9EB4C}" name="1000" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{E78BFA2B-C731-472B-A273-0BB5115476BA}" name="10k" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C3F1A4-DD7F-4D4F-BF8A-A0243C73005A}" name="Table359" displayName="Table359" ref="L23:N26" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C3F1A4-DD7F-4D4F-BF8A-A0243C73005A}" name="Table359" displayName="Table359" ref="L23:N26" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C91B16B-BFC9-4C6D-92E8-CC45461B2B0C}" name="Components" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{516E0B1C-B3DD-4632-935F-C363AA6526FC}" name="1000" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{382ED4E3-BD0A-4956-BC47-119E62E75EFA}" name="10k" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{6C91B16B-BFC9-4C6D-92E8-CC45461B2B0C}" name="Components" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{516E0B1C-B3DD-4632-935F-C363AA6526FC}" name="1000" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{382ED4E3-BD0A-4956-BC47-119E62E75EFA}" name="10k" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B99AED95-ED86-4CD1-98E1-50AD709F981B}" name="Table1614" displayName="Table1614" ref="A2:D4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B99AED95-ED86-4CD1-98E1-50AD709F981B}" name="Table1614" displayName="Table1614" ref="A2:D4" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4375D0D6-46C6-493D-AD3D-793E442C1CF8}" name="Utility Model" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{3705B30B-2253-4A5F-81E4-2A16C68726DB}" name="100" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{0C9D0DD8-6963-42B5-AD55-7B8AEAE2A5C7}" name="1000" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{052EF01F-DF0C-4267-A137-FE31A800D6E6}" name="10K" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{4375D0D6-46C6-493D-AD3D-793E442C1CF8}" name="Utility Model" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{3705B30B-2253-4A5F-81E4-2A16C68726DB}" name="100" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{0C9D0DD8-6963-42B5-AD55-7B8AEAE2A5C7}" name="1000" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{052EF01F-DF0C-4267-A137-FE31A800D6E6}" name="10K" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{477E0C3D-4C43-4276-BB11-E7C951D6A91D}" name="Table2715" displayName="Table2715" ref="H2:M6" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{477E0C3D-4C43-4276-BB11-E7C951D6A91D}" name="Table2715" displayName="Table2715" ref="H2:M6" totalsRowShown="0" headerRowDxfId="59">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BB37BC55-4B0D-4827-B303-6BB732D34B9F}" name="Utility Model" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{BB37BC55-4B0D-4827-B303-6BB732D34B9F}" name="Utility Model" dataDxfId="58"/>
     <tableColumn id="2" xr3:uid="{EE5E6386-64E9-4DE8-AE1B-96C9926F5837}" name="Item Management Service"/>
     <tableColumn id="3" xr3:uid="{EC08B7FE-1CA8-4AA0-9C8D-378B22425954}" name="Query Service"/>
     <tableColumn id="4" xr3:uid="{CAA5572C-8414-460B-98F0-378A7FDED5EF}" name="Authentication Service"/>
-    <tableColumn id="5" xr3:uid="{EFD5F9B7-BAFE-4B10-B6FF-13FEA2440A3C}" name="Average" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{EFD5F9B7-BAFE-4B10-B6FF-13FEA2440A3C}" name="Average" dataDxfId="57">
       <calculatedColumnFormula>AVERAGE(I3:K3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B991DC7F-F760-4374-AB04-2D7EC73D4868}" name="ALL Components" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{B991DC7F-F760-4374-AB04-2D7EC73D4868}" name="ALL Components" dataDxfId="56">
       <calculatedColumnFormula>Table1614[[#This Row],[10K]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31725,50 +36868,50 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{24739289-D161-4993-9CEB-56973189D849}" name="Table3816" displayName="Table3816" ref="H23:J26" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{24739289-D161-4993-9CEB-56973189D849}" name="Table3816" displayName="Table3816" ref="H23:J26" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{86E541CC-751C-46A3-99E1-AA1C6CE28A8F}" name="Components" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{75CCD6C0-73FC-4539-9A34-1C30DF8E2567}" name="1000" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E154C942-3A27-43CB-A072-FE76E9FC8A5D}" name="10k" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{86E541CC-751C-46A3-99E1-AA1C6CE28A8F}" name="Components" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{75CCD6C0-73FC-4539-9A34-1C30DF8E2567}" name="1000" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{E154C942-3A27-43CB-A072-FE76E9FC8A5D}" name="10k" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{22067BDA-64E6-48B6-9601-A66E87647AA9}" name="Table35917" displayName="Table35917" ref="L23:N26" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{22067BDA-64E6-48B6-9601-A66E87647AA9}" name="Table35917" displayName="Table35917" ref="L23:N26" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{19EA746D-B2EA-4492-9D5F-0BB6A7EC8302}" name="Components" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{1F9AF213-F4A4-49FC-882B-8F5108DE5C65}" name="1000" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{397B774E-8DCD-40FC-B793-1C87A5558265}" name="10k" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{19EA746D-B2EA-4492-9D5F-0BB6A7EC8302}" name="Components" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{1F9AF213-F4A4-49FC-882B-8F5108DE5C65}" name="1000" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{397B774E-8DCD-40FC-B793-1C87A5558265}" name="10k" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F79C0356-861F-4EA0-85B3-0FAF4B2D4A13}" name="Table11018" displayName="Table11018" ref="A2:D6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F79C0356-861F-4EA0-85B3-0FAF4B2D4A13}" name="Table11018" displayName="Table11018" ref="A2:D6" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2B048670-B6BB-4044-96F0-3C65D1C4F9F7}" name="Utility Model" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{CBAE3EDE-C448-45C0-B8C0-402F49C8091F}" name="1K" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{3DCE793F-97E9-4DB5-A2E6-3D7913727143}" name="3K" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{23A1BCC5-8244-4A0A-B590-F4AE9FB3DE9D}" name="9K" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{2B048670-B6BB-4044-96F0-3C65D1C4F9F7}" name="Utility Model" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{CBAE3EDE-C448-45C0-B8C0-402F49C8091F}" name="1K" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{3DCE793F-97E9-4DB5-A2E6-3D7913727143}" name="3K" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{23A1BCC5-8244-4A0A-B590-F4AE9FB3DE9D}" name="9K" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{8C47DBCB-3E07-4943-A69B-3C40AF1EC48A}" name="Table21119" displayName="Table21119" ref="H2:M6" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{8C47DBCB-3E07-4943-A69B-3C40AF1EC48A}" name="Table21119" displayName="Table21119" ref="H2:M6" totalsRowShown="0" headerRowDxfId="39">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{59337E05-672B-4A50-B828-E592ED538EB5}" name="Utility Model" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{59337E05-672B-4A50-B828-E592ED538EB5}" name="Utility Model" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{A3B54918-6718-4200-B5C5-C58C413BC564}" name="Item Management Service"/>
     <tableColumn id="3" xr3:uid="{3E96E163-2B23-4A89-9BED-25928BDD9F12}" name="Query Service"/>
     <tableColumn id="4" xr3:uid="{30006D9D-A7BD-4534-BF64-98A2A96BB3A7}" name="Authentication Service"/>
-    <tableColumn id="5" xr3:uid="{3022A60D-3028-42B5-861A-8FF92F0BF7FF}" name="Average" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{3022A60D-3028-42B5-861A-8FF92F0BF7FF}" name="Average" dataDxfId="37">
       <calculatedColumnFormula>AVERAGE(I3:K3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E9787E28-2C81-47A3-B9B5-59E3EB784523}" name="ALL Components" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{E9787E28-2C81-47A3-B9B5-59E3EB784523}" name="ALL Components" dataDxfId="36">
       <calculatedColumnFormula>Table11018[[#This Row],[9K]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31777,27 +36920,27 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{376B2F80-792F-469E-950D-35517ABEAF0C}" name="Table31220" displayName="Table31220" ref="H23:J26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{376B2F80-792F-469E-950D-35517ABEAF0C}" name="Table31220" displayName="Table31220" ref="H23:J26" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{76DC32CD-6E2B-4E87-983C-A153FDD77910}" name="Components" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5CF0F13E-0675-40E6-AFBE-7A4731A4884E}" name="1000" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D60CE250-0F97-4078-BDA5-E99EEC0ABDAA}" name="10k" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{76DC32CD-6E2B-4E87-983C-A153FDD77910}" name="Components" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{5CF0F13E-0675-40E6-AFBE-7A4731A4884E}" name="1000" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{D60CE250-0F97-4078-BDA5-E99EEC0ABDAA}" name="10k" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7AB531E-369D-408C-BB80-C26695A5EF4D}" name="Table2" displayName="Table2" ref="H2:M6" totalsRowShown="0" headerRowDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7AB531E-369D-408C-BB80-C26695A5EF4D}" name="Table2" displayName="Table2" ref="H2:M6" totalsRowShown="0" headerRowDxfId="119">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA17842F-1105-4246-9F25-07A629D650DF}" name="Utility Model" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{BA17842F-1105-4246-9F25-07A629D650DF}" name="Utility Model" dataDxfId="118"/>
     <tableColumn id="2" xr3:uid="{8183AF56-7F1F-4EFD-AAEB-FD98BD155097}" name="Item Management Service"/>
     <tableColumn id="3" xr3:uid="{C3489875-B311-4E1A-A2CC-350450323BD8}" name="Query Service"/>
     <tableColumn id="4" xr3:uid="{6DA0155E-1431-46D7-B736-ECA1D98A3D32}" name="Authentication Service"/>
-    <tableColumn id="5" xr3:uid="{C25F2B02-29CB-4668-88CA-F93E7CC3762F}" name="Average" dataDxfId="91">
+    <tableColumn id="5" xr3:uid="{C25F2B02-29CB-4668-88CA-F93E7CC3762F}" name="Average" dataDxfId="117">
       <calculatedColumnFormula>AVERAGE(I3:K3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D32BF47E-EFD1-46F7-B5DC-D70865777FDD}" name="ALL Components" dataDxfId="90">
+    <tableColumn id="6" xr3:uid="{D32BF47E-EFD1-46F7-B5DC-D70865777FDD}" name="ALL Components" dataDxfId="116">
       <calculatedColumnFormula>Table1[[#This Row],[10K]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31806,61 +36949,125 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B68BB0C1-3212-46B5-8F11-BAA37FC9FB78}" name="Table351321" displayName="Table351321" ref="L23:N26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B68BB0C1-3212-46B5-8F11-BAA37FC9FB78}" name="Table351321" displayName="Table351321" ref="L23:N26" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F4755273-B686-4F4B-B0F1-96F76C37A0D1}" name="Components" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{93FA5AB3-01A3-400F-BF21-C1D761E78318}" name="1000" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{AD98CDA0-B757-4C8D-941E-DB0BFF42749B}" name="10k" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F4755273-B686-4F4B-B0F1-96F76C37A0D1}" name="Components" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{93FA5AB3-01A3-400F-BF21-C1D761E78318}" name="1000" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{AD98CDA0-B757-4C8D-941E-DB0BFF42749B}" name="10k" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EF7F028C-393F-4A46-9A98-45C335E7B9CA}" name="Table1101822" displayName="Table1101822" ref="A2:D6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{554377C3-01D8-4A70-8B7E-F20C2E41E14F}" name="Utility Model" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FAD3322D-584C-46E6-902D-E405A37CD4FA}" name="1K" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EA61B44D-3F56-4088-AB2C-B71D504A46CE}" name="3K" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E91FD6A9-E93C-4AD8-9BB7-935FB80831C3}" name="9K" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{E2B57E8C-8279-4F66-A908-52FB6C9D8C50}" name="Table2111923" displayName="Table2111923" ref="H2:M6" totalsRowShown="0" headerRowDxfId="23">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CBD91896-D1A9-410B-9104-18FC6D0EC12E}" name="Utility Model" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{E9ECCDE7-E9DB-4E02-9F63-6C560F72D304}" name="Item Management Service"/>
+    <tableColumn id="3" xr3:uid="{E5F998E9-ECF2-4FFB-BDA9-B854E31EB54A}" name="Query Service"/>
+    <tableColumn id="4" xr3:uid="{E03D693A-CECD-4109-A120-56F72B3D9A22}" name="Authentication Service"/>
+    <tableColumn id="5" xr3:uid="{BE8D4FF4-7694-447F-A143-4CFD82F8CBFC}" name="Average" dataDxfId="21">
+      <calculatedColumnFormula>AVERAGE(I3:K3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{70B6D052-95D0-4AB9-929C-E1270E4645C3}" name="ALL Components" dataDxfId="20">
+      <calculatedColumnFormula>Table1101822[[#This Row],[9K]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{EF08114F-BB07-479A-836D-702037075699}" name="Table3122024" displayName="Table3122024" ref="H23:J26" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A9A77788-C708-4E00-8007-681AD1BFF308}" name="Components" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{AD8F00FA-9635-4020-BC9D-7AB7D3860189}" name="1000" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{67EC06EE-45E6-4738-968A-6BACAD333E99}" name="10k" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A81F4C66-5CA9-411A-A49B-A8B16E6C7C5E}" name="Table35132125" displayName="Table35132125" ref="L23:N26" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3BB00ADF-DD50-4BBE-8106-93F26DD689D8}" name="Components" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4A77CA4F-6BC8-4DCC-BF73-19430D118DB6}" name="1000" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{65D0C74C-614C-4645-B4B0-01128984BE77}" name="10k" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{11826219-F05C-4CB7-9FF1-6EAD07E13019}" name="Table1101827" displayName="Table1101827" ref="A4:D8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DF05FF3A-DB01-4C76-83D9-EE3E606BDAFA}" name="Utility Model" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D1D4F186-F103-4789-AB5A-47E0D444A256}" name="GBM" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2F103477-EB6F-473C-A812-6B6FC28E9D68}" name="xBoost" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8806997F-719E-4413-8044-0D78C9F687F3}" name="LightGBM" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1622EF7E-FA05-4B7F-923F-2D8AA8AC9D60}" name="Table3" displayName="Table3" ref="H23:J26" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1622EF7E-FA05-4B7F-923F-2D8AA8AC9D60}" name="Table3" displayName="Table3" ref="H23:J26" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B0B85647-2909-4BEF-BC8A-899CD7B23EE7}" name="Components" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{FCCBD6DC-E92B-45EA-B6AA-584B53B2FDD1}" name="1000" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{C8A51E81-2953-4D11-840F-2B9F56EE69A6}" name="10k" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{B0B85647-2909-4BEF-BC8A-899CD7B23EE7}" name="Components" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{FCCBD6DC-E92B-45EA-B6AA-584B53B2FDD1}" name="1000" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{C8A51E81-2953-4D11-840F-2B9F56EE69A6}" name="10k" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4B83A21-AE2D-4545-9930-F581C3A2680D}" name="Table35" displayName="Table35" ref="L23:N26" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4B83A21-AE2D-4545-9930-F581C3A2680D}" name="Table35" displayName="Table35" ref="L23:N26" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BEC53024-FF7A-42C9-BC37-6F3C2454BE6A}" name="Components" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{A9396F0F-9A5D-4100-8F59-D2E48606D768}" name="1000" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{9F3B16BE-A61D-4C8F-A450-1749BA7BE3C6}" name="10k" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{BEC53024-FF7A-42C9-BC37-6F3C2454BE6A}" name="Components" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{A9396F0F-9A5D-4100-8F59-D2E48606D768}" name="1000" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{9F3B16BE-A61D-4C8F-A450-1749BA7BE3C6}" name="10k" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55462C68-0F3B-4275-A1B7-B805B1F936E7}" name="Table110" displayName="Table110" ref="A2:D6" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55462C68-0F3B-4275-A1B7-B805B1F936E7}" name="Table110" displayName="Table110" ref="A2:D6" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4930DB97-630E-4E7D-8014-614D0851E8C2}" name="Utility Model" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{1F46764A-911E-4965-99BA-D455FDB66751}" name="100" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{B8FE584F-A930-4461-B2C7-E0CCB4B577E8}" name="1000" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{88163F7B-1AF9-4367-90F2-BB38EBEB2875}" name="10K" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{4930DB97-630E-4E7D-8014-614D0851E8C2}" name="Utility Model" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{1F46764A-911E-4965-99BA-D455FDB66751}" name="100" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{B8FE584F-A930-4461-B2C7-E0CCB4B577E8}" name="1000" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{88163F7B-1AF9-4367-90F2-BB38EBEB2875}" name="10K" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7A744714-4896-4C48-A23F-4698CF2E6E05}" name="Table211" displayName="Table211" ref="H2:M6" totalsRowShown="0" headerRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7A744714-4896-4C48-A23F-4698CF2E6E05}" name="Table211" displayName="Table211" ref="H2:M6" totalsRowShown="0" headerRowDxfId="99">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{590EEB02-0067-48A0-BE25-3D56ED387070}" name="Utility Model" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{590EEB02-0067-48A0-BE25-3D56ED387070}" name="Utility Model" dataDxfId="98"/>
     <tableColumn id="2" xr3:uid="{1A7EC786-3E25-4508-AE7E-3099100D5901}" name="Item Management Service"/>
     <tableColumn id="3" xr3:uid="{206A84BA-CB63-487F-A148-E9CE376494A6}" name="Query Service"/>
     <tableColumn id="4" xr3:uid="{366D4AA5-6DC0-409C-9E4A-A893CE7A55E5}" name="Authentication Service"/>
-    <tableColumn id="5" xr3:uid="{6083377B-FDC5-42C3-B6BD-B1D1A061B09C}" name="Average" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{6083377B-FDC5-42C3-B6BD-B1D1A061B09C}" name="Average" dataDxfId="97">
       <calculatedColumnFormula>AVERAGE(I3:K3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{71EB4E06-00B1-4276-8F12-95E3D52CF433}" name="ALL Components" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{71EB4E06-00B1-4276-8F12-95E3D52CF433}" name="ALL Components" dataDxfId="96">
       <calculatedColumnFormula>Table110[[#This Row],[10K]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31869,34 +37076,34 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3772877-18E3-4308-871C-B1622DB555F5}" name="Table312" displayName="Table312" ref="H23:J26" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3772877-18E3-4308-871C-B1622DB555F5}" name="Table312" displayName="Table312" ref="H23:J26" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1336DB63-77F5-4AFB-82CF-18ACFF618263}" name="Components" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{C3709D39-ADB2-4953-B613-BD43DF3BC410}" name="1000" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{804D6C13-4E44-4C95-9C72-E4AA52448837}" name="10k" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{1336DB63-77F5-4AFB-82CF-18ACFF618263}" name="Components" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{C3709D39-ADB2-4953-B613-BD43DF3BC410}" name="1000" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{804D6C13-4E44-4C95-9C72-E4AA52448837}" name="10k" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{38B18563-138D-4ECB-B8FB-653457678EB2}" name="Table3513" displayName="Table3513" ref="L23:N26" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{38B18563-138D-4ECB-B8FB-653457678EB2}" name="Table3513" displayName="Table3513" ref="L23:N26" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3A22891-F830-4C08-8B90-7D40C3D144BB}" name="Components" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{F88F145B-236A-4242-9492-B6771D90F7E2}" name="1000" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{B6904E7A-51A8-4182-8506-6C1A9DB20B63}" name="10k" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{D3A22891-F830-4C08-8B90-7D40C3D144BB}" name="Components" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{F88F145B-236A-4242-9492-B6771D90F7E2}" name="1000" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{B6904E7A-51A8-4182-8506-6C1A9DB20B63}" name="10k" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B9950C9-213E-4A46-8DAE-88F0CEA5CF81}" name="Table16" displayName="Table16" ref="A2:D6" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B9950C9-213E-4A46-8DAE-88F0CEA5CF81}" name="Table16" displayName="Table16" ref="A2:D6" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E711A84B-ACC3-4FEF-A5A2-2E56EE62C95B}" name="Utility Model" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{66014BD3-840D-4BD6-9618-AE46750A4A81}" name="100" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{E6D38BA1-EE5C-4488-837D-CBB4237166C1}" name="1000" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{2221A29D-37DF-40D1-AEA1-8C06766BAD80}" name="10K" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{E711A84B-ACC3-4FEF-A5A2-2E56EE62C95B}" name="Utility Model" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{66014BD3-840D-4BD6-9618-AE46750A4A81}" name="100" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{E6D38BA1-EE5C-4488-837D-CBB4237166C1}" name="1000" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{2221A29D-37DF-40D1-AEA1-8C06766BAD80}" name="10K" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32205,15 +37412,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.53125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -32224,7 +37431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -32238,7 +37445,7 @@
         <v>0.26861639999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -32252,7 +37459,7 @@
         <v>1.7277804999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -32266,7 +37473,7 @@
         <v>0.25636750000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -32284,6 +37491,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B7B3B-9989-4DC8-8CDC-AB53F818FBDB}">
+  <dimension ref="A3:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.412881178855042</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.8121533916777101E-2</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.4049862063002201</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.47339255834478999</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.571836433222501</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.91162854984439801</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.1620950970742898</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.57409891572279</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -32295,12 +37596,12 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -32311,7 +37612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -32325,7 +37626,7 @@
         <v>2.6173165733149402</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -32339,7 +37640,7 @@
         <v>14.799676653858301</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -32353,7 +37654,7 @@
         <v>3.3391348310922799</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -32381,12 +37682,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -32397,7 +37698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -32411,7 +37712,7 @@
         <v>3.389020183655</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -32425,7 +37726,7 @@
         <v>7.2232949988114497</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -32439,7 +37740,7 @@
         <v>2.97646083974369</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -32467,39 +37768,39 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" customWidth="1"/>
+    <col min="7" max="7" width="4.9296875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -32531,7 +37832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -32568,7 +37869,7 @@
         <v>0.114656821163829</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -32605,7 +37906,7 @@
         <v>0.77455300000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -32639,7 +37940,7 @@
         <v>0.49712250000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -32676,7 +37977,7 @@
         <v>1.181262</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H23" s="6" t="s">
         <v>31</v>
       </c>
@@ -32696,7 +37997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="8:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:14" ht="58.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H24" s="9" t="s">
         <v>22</v>
       </c>
@@ -32716,7 +38017,7 @@
         <v>8.0770549999999997</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
@@ -32736,7 +38037,7 @@
         <v>7.121181</v>
       </c>
     </row>
-    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="9" t="s">
         <v>20</v>
       </c>
@@ -32781,39 +38082,39 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" customWidth="1"/>
+    <col min="7" max="7" width="4.9296875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -32845,7 +38146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -32882,7 +38183,7 @@
         <v>9.0642110000000008E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -32919,7 +38220,7 @@
         <v>0.3414567</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -32953,7 +38254,7 @@
         <v>0.343933463798408</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -32990,7 +38291,7 @@
         <v>1.28522</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H23" s="6" t="s">
         <v>31</v>
       </c>
@@ -33010,7 +38311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="8:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:14" ht="58.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H24" s="9" t="s">
         <v>22</v>
       </c>
@@ -33030,7 +38331,7 @@
         <v>8.0770549999999997</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
@@ -33050,7 +38351,7 @@
         <v>7.121181</v>
       </c>
     </row>
-    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="9" t="s">
         <v>20</v>
       </c>
@@ -33095,39 +38396,39 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" customWidth="1"/>
+    <col min="7" max="7" width="4.9296875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -33159,7 +38460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -33196,7 +38497,7 @@
         <v>7.136852E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -33233,7 +38534,7 @@
         <v>0.28320200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -33267,7 +38568,7 @@
         <v>0.28217009999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -33304,7 +38605,7 @@
         <v>1.342794</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H23" s="6" t="s">
         <v>31</v>
       </c>
@@ -33324,7 +38625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="8:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:14" ht="58.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H24" s="9" t="s">
         <v>22</v>
       </c>
@@ -33344,7 +38645,7 @@
         <v>8.0770549999999997</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
@@ -33364,7 +38665,7 @@
         <v>7.121181</v>
       </c>
     </row>
-    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="9" t="s">
         <v>20</v>
       </c>
@@ -33409,39 +38710,39 @@
       <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.53125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" customWidth="1"/>
+    <col min="7" max="7" width="4.9296875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -33473,7 +38774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -33510,7 +38811,7 @@
         <v>8.5815920000000007E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -33547,7 +38848,7 @@
         <v>7.136852E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
@@ -33569,7 +38870,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -33594,7 +38895,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H23" s="6" t="s">
         <v>31</v>
       </c>
@@ -33614,7 +38915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="8:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:14" ht="58.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H24" s="9" t="s">
         <v>22</v>
       </c>
@@ -33634,7 +38935,7 @@
         <v>8.0770549999999997</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.45">
       <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
@@ -33654,7 +38955,7 @@
         <v>7.121181</v>
       </c>
     </row>
-    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="9" t="s">
         <v>20</v>
       </c>
@@ -33693,49 +38994,73 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987F9A41-F47A-4B58-839E-8409B7DA1B9E}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18:P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" customWidth="1"/>
+    <col min="7" max="7" width="4.9296875" customWidth="1"/>
     <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:23" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="H1" t="e">
         <f>+N:HH</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -33766,21 +39091,45 @@
       <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2">
+        <v>1.5934E-3</v>
+      </c>
+      <c r="R2">
+        <v>3.1952940396777198E-4</v>
+      </c>
+      <c r="S2">
+        <v>0.27728979999999998</v>
+      </c>
+      <c r="T2">
+        <v>0.25370877664708402</v>
+      </c>
+      <c r="U2">
+        <v>6.7911207442150595E-2</v>
+      </c>
+      <c r="V2">
+        <v>0.99996464862020096</v>
+      </c>
+      <c r="W2">
+        <v>6.21872853124079E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <f>'Data-1k3k9k'!H3</f>
+        <f>'Results-1k3k9k'!W2</f>
         <v>6.21872853124079E-2</v>
       </c>
       <c r="C3" s="3">
-        <f>'Data-1k3k9k'!H4</f>
+        <f>'Results-1k3k9k'!W3</f>
         <v>6.6164731071410299E-2</v>
       </c>
       <c r="D3" s="3">
-        <f>'Data-1k3k9k'!H5</f>
+        <f>'Results-1k3k9k'!W4</f>
         <v>1.8121533916777101E-2</v>
       </c>
       <c r="E3" s="1"/>
@@ -33808,21 +39157,45 @@
         <f>Table11018[[#This Row],[9K]]</f>
         <v>1.8121533916777101E-2</v>
       </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3">
+        <v>1.9314E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.92047494125802E-4</v>
+      </c>
+      <c r="S3">
+        <v>0.72634690000000002</v>
+      </c>
+      <c r="T3">
+        <v>0.60588315294988204</v>
+      </c>
+      <c r="U3">
+        <v>0.34164605962912298</v>
+      </c>
+      <c r="V3">
+        <v>0.99963567858264601</v>
+      </c>
+      <c r="W3">
+        <v>6.6164731071410299E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <f>'Data-1k3k9k'!H9</f>
+        <f>'Results-1k3k9k'!W8</f>
         <v>0.78780089902908401</v>
       </c>
       <c r="C4" s="2">
-        <f>'Data-1k3k9k'!H10</f>
+        <f>'Results-1k3k9k'!W9</f>
         <v>0.62747872591089504</v>
       </c>
       <c r="D4" s="2">
-        <f>'Data-1k3k9k'!H11</f>
+        <f>'Results-1k3k9k'!W10</f>
         <v>0.47339255834478999</v>
       </c>
       <c r="E4" s="1"/>
@@ -33848,21 +39221,45 @@
         <f>Table11018[[#This Row],[9K]]</f>
         <v>0.47339255834478999</v>
       </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4">
+        <v>1.7149000000000001E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.88290440543326E-4</v>
+      </c>
+      <c r="S4">
+        <v>0.2058671</v>
+      </c>
+      <c r="T4">
+        <v>0.20044850028745501</v>
+      </c>
+      <c r="U4">
+        <v>0.32602994553364301</v>
+      </c>
+      <c r="V4">
+        <v>0.99963397440005197</v>
+      </c>
+      <c r="W4">
+        <v>1.8121533916777101E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3">
-        <f>'Data-1k3k9k'!H6</f>
+        <f>'Results-1k3k9k'!W5</f>
         <v>2.6567996151137998</v>
       </c>
       <c r="C5" s="3">
-        <f>'Data-1k3k9k'!H7</f>
+        <f>'Results-1k3k9k'!W6</f>
         <v>1.25597665438821</v>
       </c>
       <c r="D5" s="3">
-        <f>'Data-1k3k9k'!H8</f>
+        <f>'Results-1k3k9k'!W7</f>
         <v>0.91162854984439801</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -33885,21 +39282,45 @@
         <f>Table11018[[#This Row],[9K]]</f>
         <v>0.91162854984439801</v>
       </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5">
+        <v>2.1744999999999998E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.8745199385442301E-4</v>
+      </c>
+      <c r="S5">
+        <v>26.091282400000001</v>
+      </c>
+      <c r="T5">
+        <v>14.795570665054001</v>
+      </c>
+      <c r="U5">
+        <v>32.463848503485799</v>
+      </c>
+      <c r="V5">
+        <v>0.97991073362356396</v>
+      </c>
+      <c r="W5">
+        <v>2.6567996151137998</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="3">
-        <f>'Data-1k3k9k'!H12</f>
+        <f>'Results-1k3k9k'!W11</f>
         <v>3.0856509120857201</v>
       </c>
       <c r="C6" s="3">
-        <f>'Data-1k3k9k'!H13</f>
+        <f>'Results-1k3k9k'!W12</f>
         <v>2.61499531459368</v>
       </c>
       <c r="D6" s="3">
-        <f>'Data-1k3k9k'!H14</f>
+        <f>'Results-1k3k9k'!W13</f>
         <v>1.57409891572279</v>
       </c>
       <c r="E6" s="1"/>
@@ -33927,68 +39348,214 @@
         <f>Table11018[[#This Row],[9K]]</f>
         <v>1.57409891572279</v>
       </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6">
+        <v>1.8254300000000001E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.8664072652015002E-3</v>
+      </c>
+      <c r="S6">
+        <v>16.528029400000001</v>
+      </c>
+      <c r="T6">
+        <v>7.4592624396113703</v>
+      </c>
+      <c r="U6">
+        <v>13.210261665233901</v>
+      </c>
+      <c r="V6">
+        <v>0.99737737366799095</v>
+      </c>
+      <c r="W6">
+        <v>1.25597665438821</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7">
+        <v>6.9116399999999995E-2</v>
+      </c>
+      <c r="R7">
+        <v>7.2918775250275097E-3</v>
+      </c>
+      <c r="S7">
+        <v>20.633234699999999</v>
+      </c>
+      <c r="T7">
+        <v>9.2769616277881202</v>
+      </c>
+      <c r="U7">
+        <v>21.5388465518011</v>
+      </c>
+      <c r="V7">
+        <v>0.99400802317743697</v>
+      </c>
+      <c r="W7">
+        <v>0.91162854984439801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8">
+        <v>2.4076000000000002E-3</v>
+      </c>
+      <c r="R8">
+        <v>4.9769834237216304E-4</v>
+      </c>
+      <c r="S8">
+        <v>13.4089445</v>
+      </c>
+      <c r="T8">
+        <v>5.9996185241601401</v>
+      </c>
+      <c r="U8">
+        <v>4.4391372129446403</v>
+      </c>
+      <c r="V8">
+        <v>0.998746052208623</v>
+      </c>
+      <c r="W8">
+        <v>0.78780089902908401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="P9" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="Q9">
+        <v>3.0839000000000001E-3</v>
+      </c>
+      <c r="R9">
+        <v>2.46792402638329E-4</v>
+      </c>
+      <c r="S9">
+        <v>8.2625419000000004</v>
+      </c>
+      <c r="T9">
+        <v>1.9618436286202099</v>
+      </c>
+      <c r="U9">
+        <v>5.3532327640658499</v>
+      </c>
+      <c r="V9">
+        <v>0.99861541645736995</v>
+      </c>
+      <c r="W9">
+        <v>0.62747872591089504</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="P10" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="Q10">
+        <v>5.6401999999999997E-3</v>
+      </c>
+      <c r="R10">
+        <v>3.5391264458903098E-4</v>
+      </c>
+      <c r="S10">
+        <v>10.182168799999999</v>
+      </c>
+      <c r="T10">
+        <v>2.97408587328409</v>
+      </c>
+      <c r="U10">
+        <v>6.2863117845081602</v>
+      </c>
+      <c r="V10">
+        <v>0.99903988828548296</v>
+      </c>
+      <c r="W10">
+        <v>0.47339255834478999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="P11" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="Q11">
+        <v>1.4338399999999999E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.76508227570276E-3</v>
+      </c>
+      <c r="S11">
+        <v>378.1585662</v>
+      </c>
+      <c r="T11">
+        <v>154.324873849168</v>
+      </c>
+      <c r="U11">
+        <v>294.648873484776</v>
+      </c>
+      <c r="V11">
+        <v>0.98079426379211698</v>
+      </c>
+      <c r="W11">
+        <v>3.0856509120857201</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="P12" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="Q12">
+        <v>3.1909999999999998E-3</v>
+      </c>
+      <c r="R12">
+        <v>3.2375021235514398E-4</v>
+      </c>
+      <c r="S12">
+        <v>338.86622310000001</v>
+      </c>
+      <c r="T12">
+        <v>94.237951883102497</v>
+      </c>
+      <c r="U12">
+        <v>225.14277721519699</v>
+      </c>
+      <c r="V12">
+        <v>0.99342866548969899</v>
+      </c>
+      <c r="W12">
+        <v>2.61499531459368</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="P13" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="Q13">
+        <v>2.8522050999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.162736149966411</v>
+      </c>
+      <c r="S13">
+        <v>341.29815989999997</v>
+      </c>
+      <c r="T13">
+        <v>102.782967717894</v>
+      </c>
+      <c r="U13">
+        <v>223.89861730415601</v>
+      </c>
+      <c r="V13">
+        <v>0.99511325460294098</v>
+      </c>
+      <c r="W13">
+        <v>1.57409891572279</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="P18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="P19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="P20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="P21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="P22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H23" s="6" t="s">
         <v>31</v>
       </c>
@@ -34007,11 +39574,8 @@
       <c r="N23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P23" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="24" spans="8:16" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:16" ht="58.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H24" s="9" t="s">
         <v>22</v>
       </c>
@@ -34030,11 +39594,8 @@
       <c r="N24" s="3">
         <v>8.0770549999999997</v>
       </c>
-      <c r="P24" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:16" x14ac:dyDescent="0.45">
       <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
@@ -34053,11 +39614,8 @@
       <c r="N25" s="3">
         <v>7.121181</v>
       </c>
-      <c r="P25" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="26" spans="8:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="9" t="s">
         <v>20</v>
       </c>
@@ -34077,6 +39635,81 @@
         <v>4.5227139999999997</v>
       </c>
       <c r="P26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.45">
+      <c r="P27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.45">
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.45">
+      <c r="P29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.45">
+      <c r="P30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.45">
+      <c r="P31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P43" t="s">
         <v>75</v>
       </c>
     </row>
@@ -34098,357 +39731,686 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B7B3B-9989-4DC8-8CDC-AB53F818FBDB}">
-  <dimension ref="A2:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369E0DDD-B8AE-4CB2-80FA-6D83F77923DF}">
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" customWidth="1"/>
+    <col min="7" max="7" width="4.9296875" customWidth="1"/>
+    <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="1" spans="1:25" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="H1" t="e">
+        <f>+N:HH</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="U1" t="s">
         <v>44</v>
       </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="2" spans="1:25" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>45</v>
       </c>
-      <c r="B3">
-        <v>1.5934E-3</v>
-      </c>
-      <c r="C3">
-        <v>3.1952940396777198E-4</v>
-      </c>
-      <c r="D3">
-        <v>0.27728979999999998</v>
-      </c>
-      <c r="E3">
-        <v>0.25370877664708402</v>
-      </c>
-      <c r="F3">
-        <v>6.7911207442150595E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.99996464862020096</v>
-      </c>
-      <c r="H3">
-        <v>6.21872853124079E-2</v>
+      <c r="S2">
+        <v>0.17304866310301101</v>
+      </c>
+      <c r="T2">
+        <v>0.99977045916242402</v>
+      </c>
+      <c r="U2">
+        <v>0.213045832312832</v>
+      </c>
+      <c r="V2">
+        <v>3.99000000000001</v>
+      </c>
+      <c r="W2">
+        <v>6.0000000000002301E-2</v>
+      </c>
+      <c r="X2">
+        <v>23.810000000001299</v>
+      </c>
+      <c r="Y2">
+        <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.213045832312832</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.98880768068118696</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.412881178855042</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5.9604639999999998E-6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.32240244000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.74256789000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L5" si="0">AVERAGE(I3:K3)</f>
+        <v>0.35499209682133337</v>
+      </c>
+      <c r="M3" s="3">
+        <f>Table1101822[[#This Row],[9K]]</f>
+        <v>0.412881178855042</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
         <v>46</v>
       </c>
-      <c r="B4">
-        <v>1.9314E-3</v>
-      </c>
-      <c r="C4">
-        <v>1.92047494125802E-4</v>
-      </c>
-      <c r="D4">
-        <v>0.72634690000000002</v>
-      </c>
-      <c r="E4">
-        <v>0.60588315294988204</v>
-      </c>
-      <c r="F4">
-        <v>0.34164605962912298</v>
-      </c>
-      <c r="G4">
-        <v>0.99963567858264601</v>
-      </c>
-      <c r="H4">
-        <v>6.6164731071410299E-2</v>
+      <c r="S3">
+        <v>0.85476049966552303</v>
+      </c>
+      <c r="T3">
+        <v>0.99771954892612302</v>
+      </c>
+      <c r="U3">
+        <v>0.98880768068118696</v>
+      </c>
+      <c r="V3">
+        <v>10.500000000000099</v>
+      </c>
+      <c r="W3">
+        <v>7.0000000000000298E-2</v>
+      </c>
+      <c r="X3">
+        <v>61.639999999999397</v>
+      </c>
+      <c r="Y3">
+        <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.92682219071316696</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.17684391267762</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4049862063002201</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.98779399999999995</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.97362669999999996</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98714023333333334</v>
+      </c>
+      <c r="M4" s="3">
+        <f>Table1101822[[#This Row],[9K]]</f>
+        <v>1.4049862063002201</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="B5">
-        <v>1.7149000000000001E-3</v>
-      </c>
-      <c r="C5">
-        <v>1.88290440543326E-4</v>
-      </c>
-      <c r="D5">
-        <v>0.2058671</v>
-      </c>
-      <c r="E5">
-        <v>0.20044850028745501</v>
-      </c>
-      <c r="F5">
-        <v>0.32602994553364301</v>
-      </c>
-      <c r="G5">
-        <v>0.99963397440005197</v>
-      </c>
-      <c r="H5">
-        <v>1.8121533916777101E-2</v>
+      <c r="S4">
+        <v>0.55480068807109595</v>
+      </c>
+      <c r="T4">
+        <v>0.99894008641070298</v>
+      </c>
+      <c r="U4">
+        <v>0.412881178855042</v>
+      </c>
+      <c r="V4">
+        <v>33.25</v>
+      </c>
+      <c r="W4">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="X4">
+        <v>178.35999999999899</v>
+      </c>
+      <c r="Y4">
+        <v>1934</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.2969844589661399</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.9332066817158102</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10.571836433222501</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8.0770549999999997</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7.121181</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.5227139999999997</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5736499999999998</v>
+      </c>
+      <c r="M5" s="3">
+        <f>Table1101822[[#This Row],[9K]]</f>
+        <v>10.571836433222501</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
         <v>48</v>
       </c>
-      <c r="B6">
-        <v>2.1744999999999998E-3</v>
-      </c>
-      <c r="C6">
-        <v>1.8745199385442301E-4</v>
-      </c>
-      <c r="D6">
-        <v>26.091282400000001</v>
-      </c>
-      <c r="E6">
-        <v>14.795570665054001</v>
-      </c>
-      <c r="F6">
-        <v>32.463848503485799</v>
-      </c>
-      <c r="G6">
-        <v>0.97991073362356396</v>
-      </c>
-      <c r="H6">
-        <v>2.6567996151137998</v>
+      <c r="S5">
+        <v>28.900242698532399</v>
+      </c>
+      <c r="T5">
+        <v>0.984079120652672</v>
+      </c>
+      <c r="U5">
+        <v>8.2969844589661399</v>
+      </c>
+      <c r="V5">
+        <v>3.9700000000000299</v>
+      </c>
+      <c r="W5">
+        <v>0.130000000000003</v>
+      </c>
+      <c r="X5">
+        <v>24.200000000000699</v>
+      </c>
+      <c r="Y5">
+        <v>4935</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.3776377506670299</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.28522270841649</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.1620950970742898</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7.2863629999999997</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6.3338140000000003</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.5932620000000002</v>
+      </c>
+      <c r="L6" s="2">
+        <f>AVERAGE(I6:K6)</f>
+        <v>6.071146333333334</v>
+      </c>
+      <c r="M6" s="3">
+        <f>Table1101822[[#This Row],[9K]]</f>
+        <v>4.1620950970742898</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
         <v>49</v>
       </c>
-      <c r="B7">
-        <v>1.8254300000000001E-2</v>
-      </c>
-      <c r="C7">
-        <v>2.8664072652015002E-3</v>
-      </c>
-      <c r="D7">
-        <v>16.528029400000001</v>
-      </c>
-      <c r="E7">
-        <v>7.4592624396113703</v>
-      </c>
-      <c r="F7">
-        <v>13.210261665233901</v>
-      </c>
-      <c r="G7">
-        <v>0.99737737366799095</v>
-      </c>
-      <c r="H7">
-        <v>1.25597665438821</v>
+      <c r="S6">
+        <v>14.0962983037382</v>
+      </c>
+      <c r="T6">
+        <v>0.99701376665591002</v>
+      </c>
+      <c r="U6">
+        <v>7.9332066817158102</v>
+      </c>
+      <c r="V6">
+        <v>10.940000000000101</v>
+      </c>
+      <c r="W6">
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="X6">
+        <v>62.040000000000902</v>
+      </c>
+      <c r="Y6">
+        <v>4986</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
-        <v>6.9116399999999995E-2</v>
-      </c>
-      <c r="C8">
-        <v>7.2918775250275097E-3</v>
-      </c>
-      <c r="D8">
-        <v>20.633234699999999</v>
-      </c>
-      <c r="E8">
-        <v>9.2769616277881202</v>
-      </c>
-      <c r="F8">
-        <v>21.5388465518011</v>
-      </c>
-      <c r="G8">
-        <v>0.99400802317743697</v>
-      </c>
-      <c r="H8">
-        <v>0.91162854984439801</v>
+      <c r="S7">
+        <v>16.720685613178301</v>
+      </c>
+      <c r="T7">
+        <v>0.99638895082401502</v>
+      </c>
+      <c r="U7">
+        <v>10.571836433222501</v>
+      </c>
+      <c r="V7">
+        <v>29.66</v>
+      </c>
+      <c r="W7">
+        <v>0.109999999999999</v>
+      </c>
+      <c r="X7">
+        <v>171.849999999999</v>
+      </c>
+      <c r="Y7">
+        <v>4995</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>51</v>
       </c>
-      <c r="B9">
-        <v>2.4076000000000002E-3</v>
-      </c>
-      <c r="C9">
-        <v>4.9769834237216304E-4</v>
-      </c>
-      <c r="D9">
-        <v>13.4089445</v>
-      </c>
-      <c r="E9">
-        <v>5.9996185241601401</v>
-      </c>
-      <c r="F9">
-        <v>4.4391372129446403</v>
-      </c>
-      <c r="G9">
-        <v>0.998746052208623</v>
-      </c>
-      <c r="H9">
-        <v>0.78780089902908401</v>
+      <c r="S8">
+        <v>2.9202830797438901</v>
+      </c>
+      <c r="T8">
+        <v>0.99945733448929097</v>
+      </c>
+      <c r="U8">
+        <v>0.92682219071316696</v>
+      </c>
+      <c r="V8">
+        <v>3.98000000000002</v>
+      </c>
+      <c r="W8">
+        <v>0.110000000000003</v>
+      </c>
+      <c r="X8">
+        <v>24.609999999998799</v>
+      </c>
+      <c r="Y8">
+        <v>4992</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
         <v>52</v>
       </c>
-      <c r="B10">
-        <v>3.0839000000000001E-3</v>
-      </c>
-      <c r="C10">
-        <v>2.46792402638329E-4</v>
-      </c>
-      <c r="D10">
-        <v>8.2625419000000004</v>
-      </c>
-      <c r="E10">
-        <v>1.9618436286202099</v>
-      </c>
-      <c r="F10">
-        <v>5.3532327640658499</v>
-      </c>
-      <c r="G10">
-        <v>0.99861541645736995</v>
-      </c>
-      <c r="H10">
-        <v>0.62747872591089504</v>
+      <c r="S9">
+        <v>5.5084935316538397</v>
+      </c>
+      <c r="T9">
+        <v>0.99853393711891403</v>
+      </c>
+      <c r="U9">
+        <v>1.17684391267762</v>
+      </c>
+      <c r="V9">
+        <v>10.77</v>
+      </c>
+      <c r="W9">
+        <v>0.109999999999999</v>
+      </c>
+      <c r="X9">
+        <v>65.159999999999897</v>
+      </c>
+      <c r="Y9">
+        <v>4997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
         <v>53</v>
       </c>
-      <c r="B11">
-        <v>5.6401999999999997E-3</v>
-      </c>
-      <c r="C11">
-        <v>3.5391264458903098E-4</v>
-      </c>
-      <c r="D11">
-        <v>10.182168799999999</v>
-      </c>
-      <c r="E11">
-        <v>2.97408587328409</v>
-      </c>
-      <c r="F11">
-        <v>6.2863117845081602</v>
-      </c>
-      <c r="G11">
-        <v>0.99903988828548296</v>
-      </c>
-      <c r="H11">
-        <v>0.47339255834478999</v>
+      <c r="S10">
+        <v>5.5580829256089199</v>
+      </c>
+      <c r="T10">
+        <v>0.99924944939622895</v>
+      </c>
+      <c r="U10">
+        <v>1.4049862063002201</v>
+      </c>
+      <c r="V10">
+        <v>30.91</v>
+      </c>
+      <c r="W10">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="X10">
+        <v>196.52</v>
+      </c>
+      <c r="Y10">
+        <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
         <v>54</v>
       </c>
-      <c r="B12">
-        <v>1.4338399999999999E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.76508227570276E-3</v>
-      </c>
-      <c r="D12">
-        <v>378.1585662</v>
-      </c>
-      <c r="E12">
-        <v>154.324873849168</v>
-      </c>
-      <c r="F12">
-        <v>294.648873484776</v>
-      </c>
-      <c r="G12">
-        <v>0.98079426379211698</v>
-      </c>
-      <c r="H12">
-        <v>3.0856509120857201</v>
+      <c r="S11">
+        <v>180.032797243537</v>
+      </c>
+      <c r="T11">
+        <v>0.99282990932085502</v>
+      </c>
+      <c r="U11">
+        <v>3.3776377506670299</v>
+      </c>
+      <c r="V11">
+        <v>6.08000000000004</v>
+      </c>
+      <c r="W11">
+        <v>0.17000000000000201</v>
+      </c>
+      <c r="X11">
+        <v>36.060000000001303</v>
+      </c>
+      <c r="Y11">
+        <v>4998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
         <v>55</v>
       </c>
-      <c r="B13">
-        <v>3.1909999999999998E-3</v>
-      </c>
-      <c r="C13">
-        <v>3.2375021235514398E-4</v>
-      </c>
-      <c r="D13">
-        <v>338.86622310000001</v>
-      </c>
-      <c r="E13">
-        <v>94.237951883102497</v>
-      </c>
-      <c r="F13">
-        <v>225.14277721519699</v>
-      </c>
-      <c r="G13">
-        <v>0.99342866548969899</v>
-      </c>
-      <c r="H13">
-        <v>2.61499531459368</v>
+      <c r="S12">
+        <v>196.49807827206601</v>
+      </c>
+      <c r="T12">
+        <v>0.99499442293449003</v>
+      </c>
+      <c r="U12">
+        <v>4.28522270841649</v>
+      </c>
+      <c r="V12">
+        <v>11.97</v>
+      </c>
+      <c r="W12">
+        <v>0.25</v>
+      </c>
+      <c r="X12">
+        <v>84.580000000001704</v>
+      </c>
+      <c r="Y12">
+        <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
         <v>56</v>
       </c>
-      <c r="B14">
-        <v>2.8522050999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.162736149966411</v>
-      </c>
-      <c r="D14">
-        <v>341.29815989999997</v>
-      </c>
-      <c r="E14">
-        <v>102.782967717894</v>
-      </c>
-      <c r="F14">
-        <v>223.89861730415601</v>
-      </c>
-      <c r="G14">
-        <v>0.99511325460294098</v>
-      </c>
-      <c r="H14">
-        <v>1.57409891572279</v>
+      <c r="S13">
+        <v>181.193519608977</v>
+      </c>
+      <c r="T13">
+        <v>0.99679961510835102</v>
+      </c>
+      <c r="U13">
+        <v>4.1620950970742898</v>
+      </c>
+      <c r="V13">
+        <v>35.28</v>
+      </c>
+      <c r="W13">
+        <v>7.0000000000000298E-2</v>
+      </c>
+      <c r="X13">
+        <v>190.55999999999901</v>
+      </c>
+      <c r="Y13">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="H23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" ht="58.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="10">
+        <v>3.4550179999999999</v>
+      </c>
+      <c r="J24" s="10">
+        <v>7.2863629999999997</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1">
+        <v>5.9379540000000004</v>
+      </c>
+      <c r="N24" s="3">
+        <v>8.0770549999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="H25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="10">
+        <v>4.3212859999999997</v>
+      </c>
+      <c r="J25" s="10">
+        <v>6.3338140000000003</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4.309234</v>
+      </c>
+      <c r="N25" s="3">
+        <v>7.121181</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="11">
+        <v>5.7896057452285303</v>
+      </c>
+      <c r="J26" s="10">
+        <v>4.5932620000000002</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3.0777860000000001</v>
+      </c>
+      <c r="N26" s="3">
+        <v>4.5227139999999997</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/results/training/Summary_ValidationError_DataSplits.xlsx
+++ b/results/training/Summary_ValidationError_DataSplits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_SelfHealingUtility\results\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F225691-5830-4296-8D3B-BECFF96069D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A27C70-6D34-4B09-9EF2-653D29E704BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="7238" firstSheet="7" activeTab="10" xr2:uid="{55F1A794-B749-444C-B355-0D1974EC55E2}"/>
   </bookViews>
@@ -46036,8 +46036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B7B3B-9989-4DC8-8CDC-AB53F818FBDB}">
   <dimension ref="A3:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
